--- a/Steven/Begroting Steven.xlsx
+++ b/Steven/Begroting Steven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Aquastorm\Resources\Steven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A107C87-5C18-4CEF-9ECE-CE5B0F56CB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D87FB7-C85F-48B0-A1AE-FA0542C78519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Product</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Beschrijving</t>
   </si>
   <si>
-    <t>Fabricatie kosten</t>
-  </si>
-  <si>
-    <t>Materiaal</t>
-  </si>
-  <si>
     <t>Overzicht</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
     <t xml:space="preserve">De prijs is gebasseerd op die van de Hoofd-module. De prijs kan dus goedkoper of duurder uitvallen. </t>
   </si>
   <si>
-    <t>Geschatte kosten van het materiaal dat nodig is om de module te produceren. Denk hierbij aan acryl, plastic metaal, schroeven, moeren, lijm, kit, etc..</t>
-  </si>
-  <si>
-    <t>Het Produceren van behuizingen, denk hierbij aan het laten snijden, printen, CNC'en etc.</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -111,13 +99,67 @@
     <t>Nog niet beschikbaar</t>
   </si>
   <si>
-    <t>Prijs per stuk</t>
-  </si>
-  <si>
     <t>Afbeelding</t>
   </si>
   <si>
-    <t>Zekerheid</t>
+    <t>Verzendkosten</t>
+  </si>
+  <si>
+    <t>Prijs per stuk excl. Btw.</t>
+  </si>
+  <si>
+    <t>Totaal bedrag (btw + verzend kosten)</t>
+  </si>
+  <si>
+    <t>Threaded inserts</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Amazon | Threaded Inserts M3</t>
+  </si>
+  <si>
+    <t>TOPRC | XT60 Female 4 stuks</t>
+  </si>
+  <si>
+    <t>TOPRC</t>
+  </si>
+  <si>
+    <t>XT60 Connectoren</t>
+  </si>
+  <si>
+    <t>Draad</t>
+  </si>
+  <si>
+    <t>Deze zijn waarschijnlijk nodig om de PCB's te bevestigen in de behuizing</t>
+  </si>
+  <si>
+    <t>Deze zijn om de PCB's van voeding te voorzien. Het kan zijn dat deze al beschikbaar zijn in de werkplaats.</t>
+  </si>
+  <si>
+    <t>Dit is nodig om de PCB's van voeding te voorzien. Het kan zijn dat deze al beschikbaar zijn in de werkplaats.</t>
+  </si>
+  <si>
+    <t>SMA Adapter</t>
+  </si>
+  <si>
+    <t>Amazon | Wire 14 AWG</t>
+  </si>
+  <si>
+    <t>Amazon | SMA Adapter</t>
+  </si>
+  <si>
+    <t>3D printer fillament</t>
+  </si>
+  <si>
+    <t>Amazon | 3D printer fillament</t>
+  </si>
+  <si>
+    <t>Dit is nodig voor het produceren van de behuizing. Deze is waarschijnlijk al beschikbaar in de werkplaats. Hij staat er bij voor de zekerheid.</t>
+  </si>
+  <si>
+    <t>Deze zijn waarschijnlijk nodig voor de GPS module om er een externe antenne op aan te sluiten.</t>
   </si>
 </sst>
 </file>
@@ -195,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -257,13 +299,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -275,13 +328,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -292,7 +346,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -318,13 +372,58 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,25 +484,157 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E112E956-15BE-406E-80F2-331345E38764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="4324350"/>
+          <a:ext cx="2228850" cy="1213615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42832</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2162173</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1200152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Afbeelding 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C559389A-6855-4700-BBFF-8407229C9D0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1990724" y="5105402"/>
+          <a:ext cx="1138208" cy="2119341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90421</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2028829</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1619152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Afbeelding 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ADC207-530E-47A4-B402-A0B1F79B3716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1750237" y="6665035"/>
+          <a:ext cx="1533426" cy="1938408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}" name="Tabel1" displayName="Tabel1" ref="A1:J6" totalsRowShown="0">
-  <autoFilter ref="A1:J6" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}" name="Tabel1" displayName="Tabel1" ref="A1:J8" totalsRowShown="0">
+  <autoFilter ref="A1:J8" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5284B5B2-0CA7-463C-8624-5D965981C2FD}" name="Product"/>
     <tableColumn id="10" xr3:uid="{4E0F0235-5BDB-4B77-AAE5-67F30DD178C2}" name="Afbeelding"/>
     <tableColumn id="2" xr3:uid="{B7020C53-AB22-4DF3-9D3D-D8D0D26043C6}" name="Winkel"/>
     <tableColumn id="3" xr3:uid="{78DC4D43-2BD9-4385-A67D-1B0E718DBD26}" name="Link"/>
     <tableColumn id="4" xr3:uid="{FC869D40-D8D8-402C-83A8-D11F56F344BF}" name="Aantal"/>
-    <tableColumn id="5" xr3:uid="{174C0AF9-53BB-49B7-8283-E119C1EE8C6D}" name="Prijs per stuk" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{16EB43D6-81B2-4E29-B5CE-8D0F42C13CAA}" name="Totaal bedrag" dataDxfId="6">
-      <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{174C0AF9-53BB-49B7-8283-E119C1EE8C6D}" name="Prijs per stuk excl. Btw." dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{B8FCC8E6-AE9C-45F3-BBE8-20E2C28B55D3}" name="Verzendkosten" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{16EB43D6-81B2-4E29-B5CE-8D0F42C13CAA}" name="Totaal bedrag (btw + verzend kosten)" dataDxfId="13">
+      <calculatedColumnFormula>E2*F2 + G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{A7CD0D0F-6530-4721-8633-A72254C7C8A1}" name="Beschrijving"/>
-    <tableColumn id="13" xr3:uid="{C0EC3B0F-0670-4251-BE71-3CDA3AC8A39B}" name="Zekerheid"/>
-    <tableColumn id="8" xr3:uid="{17EC1937-D0DA-4A1F-948B-1A5BEF8BDB40}" name="Status" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{17EC1937-D0DA-4A1F-948B-1A5BEF8BDB40}" name="Status" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,22 +906,24 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
@@ -698,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -710,22 +943,23 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K1"/>
       <c r="L1" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -746,26 +980,30 @@
         <v>24.99</v>
       </c>
       <c r="G2" s="2">
-        <f>E2*F2</f>
-        <v>24.99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
+        <v>6.95</v>
+      </c>
+      <c r="H2" s="2">
+        <f>E2*F2 + G2</f>
+        <v>31.939999999999998</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM(G:G)</f>
-        <v>1591.33</v>
+        <f>SUM(H:H)</f>
+        <v>1070.8900000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -774,28 +1012,32 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>239.39</v>
+        <v>200</v>
       </c>
       <c r="G3" s="2">
-        <f>E3*F3</f>
-        <v>239.39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H6" si="0">E3*F3 + G3</f>
+        <v>250</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K3"/>
       <c r="L3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M3" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -804,108 +1046,250 @@
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>239.39</v>
+        <v>130</v>
       </c>
       <c r="G4" s="2">
-        <f>E4*F4</f>
-        <v>1196.9499999999998</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="H4" s="2">
+        <f>E4*F4 + G4</f>
+        <v>690</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K4"/>
       <c r="L4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="6">
         <f>M2+M2*M3</f>
-        <v>1989.1624999999999</v>
+        <v>1338.6125000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G6" si="0">E5*F5</f>
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
+        <v>10.99</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>10.99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>13.45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F7" s="2">
+        <v>16.68</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="H7" s="2">
+        <f>E7*F7 + G7</f>
+        <v>23.63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>24</v>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="H8" s="2">
+        <f>E8*F8 + G8</f>
+        <v>17.940000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>25.99</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="H9" s="2">
+        <f>E9*F9 + G9</f>
+        <v>32.94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="1048576" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1048576" s="2">
         <f>SUM(F3:F1048575)</f>
-        <v>608.78</v>
+        <v>399.40000000000003</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="K8 K10:K1048576 J1:J8">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Kan worden besteld"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Nog niet beschikbaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"Nog niet beschikbaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Nog niet beschikbaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Nog niet beschikbaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Kan worden besteld"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Nog niet beschikbaar"</formula>
+      <formula>"Kan worden besteld"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.conrad.nl/p/stmicroelectronics-nucleo-f411re-developmentboard-stm32-f4-series-1416928?WT.mc_id=gshop&amp;utm_source=google&amp;utm_medium=surfaces&amp;utm_term=1416928&amp;utm_content=free-google-shopping-clicks&amp;utm_campaign=shopping-feed&amp;gclid=Cj0KCQiAjJOQBhCkARIsAEKMtO37NK3yRgaSxBjUJXdPCozc5NgzvTALIPzX6ALzCLA5EQcx98VuQXIaAimoEALw_wcB&amp;gclsrc=aw.ds&amp;tid=14577896136_127479790272_pla-302202374812_pla-1416928&amp;WT.srch=1&amp;vat=true&amp;insert_kz=8J" xr:uid="{DF04C681-9A4D-429B-9EB2-D5D687ACD76A}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{380ED063-0838-4300-9F63-1F3A312B2F3D}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{C6633DC3-BD1E-4A05-9DEE-C2888A4CFA78}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{CAC78024-5EBA-4252-AFF8-5D36D81EAB53}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{6954F100-740F-4F59-B894-68BA83999BAC}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{378BDF46-E3F0-4BF6-AD0F-B1873681039D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Steven/Begroting Steven.xlsx
+++ b/Steven/Begroting Steven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Aquastorm\Resources\Steven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D87FB7-C85F-48B0-A1AE-FA0542C78519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAC4437-FB31-4067-A338-B8B3E7B57118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Product</t>
   </si>
@@ -69,36 +69,9 @@
     <t>Bedrag Excl onvoorziene kosten</t>
   </si>
   <si>
-    <t>Totaal bedrag</t>
-  </si>
-  <si>
-    <t>Onvoorziene kosten</t>
-  </si>
-  <si>
-    <t>Hardware Module</t>
-  </si>
-  <si>
-    <t>1 bestelling is 5 stuks (Prijs bepaald door geschatte componenten op te sturen naar fabrikant en offerte te hebben ontvangen)</t>
-  </si>
-  <si>
     <t>Voor het testen van code en componenten</t>
   </si>
   <si>
-    <t>Hoofd Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De prijs is gebasseerd op die van de Hoofd-module. De prijs kan dus goedkoper of duurder uitvallen. </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Kan worden besteld</t>
-  </si>
-  <si>
-    <t>Nog niet beschikbaar</t>
-  </si>
-  <si>
     <t>Afbeelding</t>
   </si>
   <si>
@@ -132,34 +105,85 @@
     <t>Draad</t>
   </si>
   <si>
-    <t>Deze zijn waarschijnlijk nodig om de PCB's te bevestigen in de behuizing</t>
-  </si>
-  <si>
-    <t>Deze zijn om de PCB's van voeding te voorzien. Het kan zijn dat deze al beschikbaar zijn in de werkplaats.</t>
-  </si>
-  <si>
-    <t>Dit is nodig om de PCB's van voeding te voorzien. Het kan zijn dat deze al beschikbaar zijn in de werkplaats.</t>
-  </si>
-  <si>
-    <t>SMA Adapter</t>
-  </si>
-  <si>
     <t>Amazon | Wire 14 AWG</t>
   </si>
   <si>
-    <t>Amazon | SMA Adapter</t>
-  </si>
-  <si>
     <t>3D printer fillament</t>
   </si>
   <si>
     <t>Amazon | 3D printer fillament</t>
   </si>
   <si>
-    <t>Dit is nodig voor het produceren van de behuizing. Deze is waarschijnlijk al beschikbaar in de werkplaats. Hij staat er bij voor de zekerheid.</t>
-  </si>
-  <si>
-    <t>Deze zijn waarschijnlijk nodig voor de GPS module om er een externe antenne op aan te sluiten.</t>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Deze behoren bij de printplaten en zijn nodig om de printplaten van stroom te voor zien. Deze zijn vaak slecht leverbaar bij de fabrikant en moeten wellicht los besteld worden.</t>
+  </si>
+  <si>
+    <t>Dit is nodig om de printplaten van voeding te voorzien. Het kan zijn dat deze al beschikbaar zijn in de werkplaats.</t>
+  </si>
+  <si>
+    <t>Onbekend</t>
+  </si>
+  <si>
+    <t>Linux single board computer + accessoires</t>
+  </si>
+  <si>
+    <t>Communicatie bedrading</t>
+  </si>
+  <si>
+    <t>Dit is schatting van wat nodig is voor de hoofdmodule. De prijs is inclusief accessoires. Denk hierbij aan koeling of benodigde shield, SD-kaart, etc.</t>
+  </si>
+  <si>
+    <t>Communicatie connectoren</t>
+  </si>
+  <si>
+    <t>Dit is nodig om de modules met elkaar te laten communiceren. Er wordt hier uit gegaan van CAT6 S-FTP Kabel. Dit kan nog veranderen. Er is tevens rekening gehouden met 25 meter kabel.</t>
+  </si>
+  <si>
+    <t>AlleKabels | CAT6- kabel</t>
+  </si>
+  <si>
+    <t>Reichelt | RJ45 Connector</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>Totale kosten</t>
+  </si>
+  <si>
+    <t>1 bestelling is 5 stuks. Prijs is bepaald naar schatting van de hoeveelheid componenten die zich op de printplaten bevinden. Hier is door de fabrikant van de printplaten de volgende prijs uitgekomen.</t>
+  </si>
+  <si>
+    <t>AlleKabels</t>
+  </si>
+  <si>
+    <t>Reichelt</t>
+  </si>
+  <si>
+    <t>Netwerk Switch</t>
+  </si>
+  <si>
+    <t>Alternate | Netwerk Switch</t>
+  </si>
+  <si>
+    <t>Alternate</t>
+  </si>
+  <si>
+    <t>Deze zijn waarschijnlijk nodig om de PCB's te bevestigen in de behuizing. Bij deze kit heb je honderd stuks, wat meer dan genoeg is voor het gehele project.</t>
+  </si>
+  <si>
+    <t>Connectoren zijn nodig om de modules met elkaar te verbinden. Er wordt hier uitgegaan van RJ45 Connectoren. Dit kan nog veranderen. Omdat je vaak connectoren koop per 100 stuks, wordt hier ook vanuit gegaan.</t>
+  </si>
+  <si>
+    <t>Mocht er worden gekozen voor het Ethernet Protocol, is er een netwerk switch nodig. Hier moeten eventueel nog dingen aan worden aangepast.</t>
+  </si>
+  <si>
+    <t>Dit is nodig voor het produceren van de behuizingen. Deze is waarschijnlijk al beschikbaar in de werkplaats. Hij staat er bij voor de zekerheid.</t>
+  </si>
+  <si>
+    <t>Onvoorziene kosten (Dit zijn extra kleine onderdelen die moeten worden aangeschaft. Denk hierbij aan antenne's, connectoren, adapters, etc.)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,16 +234,8 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,19 +333,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -374,20 +403,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -414,16 +429,24 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,14 +555,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>42832</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>61944</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2162173</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1200152</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1138208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -576,13 +599,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>90421</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2028829</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1619152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -616,25 +639,353 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1858750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Afbeelding 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52BC334-4619-495B-967D-50CF16B2C789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510393" y="3973286"/>
+          <a:ext cx="2204357" cy="1831535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>312965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C835B6A-9AA8-46E2-8110-CFF19757F56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469572" y="6150429"/>
+          <a:ext cx="2177142" cy="1211035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2185147</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1207682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Afbeelding 7" descr="KVIM3-x-002">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB938A7A-B27E-49CD-AA6D-3C7BF3DFEE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="17682" b="20732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2330823" y="2947145"/>
+          <a:ext cx="2084295" cy="1174066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1848971</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1127793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Afbeelding 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F374511-A2B8-4939-9405-129F4E035286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2745441" y="9087971"/>
+          <a:ext cx="1546412" cy="993322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1191185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Afbeelding 9" descr="Modulaire stekker CAT5e Afgeschermde, 100 stuks LOGILINK MP0003">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581CA966-3FD9-4D7E-B4CB-024C09848323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2823882" y="10242176"/>
+          <a:ext cx="1447800" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1991590</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1154133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Afbeelding 10" descr="TP-Link TL-SF1008D switch Retail">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AE2EF8-E94E-4511-B432-F928BD84C0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="13909" b="23966"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2684318" y="11429748"/>
+          <a:ext cx="1749136" cy="1085112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}" name="Tabel1" displayName="Tabel1" ref="A1:J8" totalsRowShown="0">
-  <autoFilter ref="A1:J8" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}" name="Tabel1" displayName="Tabel1" ref="A1:J10" totalsRowShown="0">
+  <autoFilter ref="A1:J10" xr:uid="{43BBA577-549A-4BAA-A121-FF893E4FC8FC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5284B5B2-0CA7-463C-8624-5D965981C2FD}" name="Product"/>
+    <tableColumn id="1" xr3:uid="{5284B5B2-0CA7-463C-8624-5D965981C2FD}" name="Product" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{4E0F0235-5BDB-4B77-AAE5-67F30DD178C2}" name="Afbeelding"/>
     <tableColumn id="2" xr3:uid="{B7020C53-AB22-4DF3-9D3D-D8D0D26043C6}" name="Winkel"/>
     <tableColumn id="3" xr3:uid="{78DC4D43-2BD9-4385-A67D-1B0E718DBD26}" name="Link"/>
     <tableColumn id="4" xr3:uid="{FC869D40-D8D8-402C-83A8-D11F56F344BF}" name="Aantal"/>
-    <tableColumn id="5" xr3:uid="{174C0AF9-53BB-49B7-8283-E119C1EE8C6D}" name="Prijs per stuk excl. Btw." dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{B8FCC8E6-AE9C-45F3-BBE8-20E2C28B55D3}" name="Verzendkosten" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{16EB43D6-81B2-4E29-B5CE-8D0F42C13CAA}" name="Totaal bedrag (btw + verzend kosten)" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{174C0AF9-53BB-49B7-8283-E119C1EE8C6D}" name="Prijs per stuk excl. Btw." dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{B8FCC8E6-AE9C-45F3-BBE8-20E2C28B55D3}" name="Verzendkosten" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{16EB43D6-81B2-4E29-B5CE-8D0F42C13CAA}" name="Totaal bedrag (btw + verzend kosten)" dataDxfId="11">
       <calculatedColumnFormula>E2*F2 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A7CD0D0F-6530-4721-8633-A72254C7C8A1}" name="Beschrijving"/>
-    <tableColumn id="8" xr3:uid="{17EC1937-D0DA-4A1F-948B-1A5BEF8BDB40}" name="Status" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{A7CD0D0F-6530-4721-8633-A72254C7C8A1}" name="Beschrijving" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{17EC1937-D0DA-4A1F-948B-1A5BEF8BDB40}" name="Kolom1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -903,25 +1254,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" customWidth="1"/>
+    <col min="9" max="9" width="179.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="49.85546875" customWidth="1"/>
     <col min="13" max="13" width="29.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -931,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -943,28 +1295,28 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>18</v>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="K1"/>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -986,30 +1338,31 @@
         <f>E2*F2 + G2</f>
         <v>31.939999999999998</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="I2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8"/>
       <c r="K2"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="4">
         <f>SUM(H:H)</f>
-        <v>1070.8900000000001</v>
+        <v>1467.2000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
+      <c r="A3" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>200</v>
@@ -1019,66 +1372,65 @@
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H6" si="0">E3*F3 + G3</f>
-        <v>250</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="8"/>
       <c r="K3"/>
-      <c r="L3" s="7" t="s">
-        <v>12</v>
+      <c r="L3" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="M3" s="5">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
+    <row r="4" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="G4" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2">
         <f>E4*F4 + G4</f>
-        <v>690</v>
-      </c>
-      <c r="I4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4"/>
+      <c r="L4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="14">
+        <f>M2+M2*M3</f>
+        <v>1995.3920000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="6">
-        <f>M2+M2*M3</f>
-        <v>1338.6125000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1090,23 +1442,21 @@
         <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
+    <row r="6" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1121,23 +1471,21 @@
         <f t="shared" si="0"/>
         <v>13.45</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8"/>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1152,127 +1500,164 @@
         <f>E7*F7 + G7</f>
         <v>23.63</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="8"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>10.99</v>
+        <v>0.89</v>
       </c>
       <c r="G8" s="2">
-        <v>6.95</v>
+        <v>3.95</v>
       </c>
       <c r="H8" s="2">
         <f>E8*F8 + G8</f>
-        <v>17.940000000000001</v>
-      </c>
-      <c r="I8" t="s">
+        <v>26.2</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2">
-        <v>25.99</v>
+        <v>0.1215</v>
       </c>
       <c r="G9" s="2">
         <v>6.95</v>
       </c>
       <c r="H9" s="2">
         <f>E9*F9 + G9</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H10" s="2">
+        <f>E10*F10 + G10</f>
+        <v>48.95</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25.99</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="H11" s="2">
+        <f>E11*F11 + G11</f>
         <v>32.94</v>
       </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1048576" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1048576" s="2">
-        <f>SUM(F3:F1048575)</f>
-        <v>399.40000000000003</v>
-      </c>
+      <c r="I11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K8 K10:K1048576 J1:J8">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="J1:J10 K12:K1048576">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"Kan worden besteld"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Nog niet beschikbaar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="J3:J4">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Kan worden besteld"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="J7:J10">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Nog niet beschikbaar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Kan worden besteld"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Nog niet beschikbaar"</formula>
     </cfRule>
@@ -1282,14 +1667,16 @@
     <hyperlink ref="D5" r:id="rId2" xr:uid="{380ED063-0838-4300-9F63-1F3A312B2F3D}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{C6633DC3-BD1E-4A05-9DEE-C2888A4CFA78}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{CAC78024-5EBA-4252-AFF8-5D36D81EAB53}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{6954F100-740F-4F59-B894-68BA83999BAC}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{378BDF46-E3F0-4BF6-AD0F-B1873681039D}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{378BDF46-E3F0-4BF6-AD0F-B1873681039D}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{50D64DA0-6D26-44A9-AA3A-59B483E0B585}"/>
+    <hyperlink ref="D9" r:id="rId7" display="RJ45 Connector" xr:uid="{E9EB94E3-10FF-4610-9F41-D52582593786}"/>
+    <hyperlink ref="D10" r:id="rId8" location="product-details-tab" display="Switch" xr:uid="{6F4EFA48-5E29-4476-B49C-3E5B3202AF10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>